--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD7F9F-58A6-420F-A7FA-7ECBF52896C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DABD21-0D05-462D-9DC9-3D31C99983CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="30" windowWidth="21120" windowHeight="15570" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="4260" yWindow="195" windowWidth="21750" windowHeight="15165" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
@@ -165,54 +165,30 @@
     <t>fncReadP2m</t>
   </si>
   <si>
-    <t>P2mファイル取込み</t>
-  </si>
-  <si>
     <t>fncMem2Power</t>
   </si>
   <si>
-    <t>Power.txtを作成する</t>
-  </si>
-  <si>
     <t>fncFileDelete_d</t>
   </si>
   <si>
-    <t>ドローン毎の周回用ファイルを削除する</t>
-  </si>
-  <si>
     <t>fncExtOutRename</t>
   </si>
   <si>
     <t>fncFileCheck</t>
   </si>
   <si>
-    <t>ファイルの存在チェック</t>
-  </si>
-  <si>
     <t>fncFileDel</t>
   </si>
   <si>
-    <t>ファイルの削除</t>
-  </si>
-  <si>
     <t>fncFileCopy</t>
   </si>
   <si>
-    <t>ファイルの上書きコピー</t>
-  </si>
-  <si>
     <t>subSetIni</t>
   </si>
   <si>
-    <t>INIファイル読込</t>
-  </si>
-  <si>
     <t>subPutIni</t>
   </si>
   <si>
-    <t>INIファイル保存</t>
-  </si>
-  <si>
     <t>Sub/ Function</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,16 +203,6 @@
     <t>fncItiFile</t>
   </si>
   <si>
-    <t>Itiファイルを作成する</t>
-  </si>
-  <si>
-    <t>タグ用テンプレート</t>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Function</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,9 +220,6 @@
     <t>fncTagKeyAdd</t>
   </si>
   <si>
-    <t>タグの項目の下にキー値を追加する</t>
-  </si>
-  <si>
     <t>fncTagKeyUpdate</t>
   </si>
   <si>
@@ -266,79 +229,40 @@
     <t>fncItiFile2Txrx</t>
   </si>
   <si>
-    <t>Itiファイルからtxrx用配列を作成する</t>
-  </si>
-  <si>
     <t>fncFileDelete_pj_txrx</t>
   </si>
   <si>
-    <t>プロジェクト名.txrxファイルを削除する</t>
-  </si>
-  <si>
     <t>fncFileDelete_txrx</t>
   </si>
   <si>
-    <t>スタート前にtxrxファイルを削除する</t>
-  </si>
-  <si>
     <t>subCtlReset</t>
   </si>
   <si>
-    <t>画面コントロール初期化</t>
-  </si>
-  <si>
     <t>subiInterval</t>
   </si>
   <si>
-    <t>インターバル設定</t>
-  </si>
-  <si>
     <t>subBtnOnoff</t>
   </si>
   <si>
-    <t>画面ボタン制御</t>
-  </si>
-  <si>
     <t>subOkNg_Color</t>
   </si>
   <si>
-    <t xml:space="preserve"> pOkNg設定（0：緑色、1：赤色、2：黄色）</t>
-  </si>
-  <si>
     <t>subLogOutput_Color</t>
   </si>
   <si>
-    <t>画面ログ出力（0：緑色、1：赤色、2：黄色）</t>
-  </si>
-  <si>
     <t>subLogOutput</t>
   </si>
   <si>
-    <t>画面ログ出力</t>
-  </si>
-  <si>
     <t>subSetGamen</t>
   </si>
   <si>
-    <t>画面設定情報を取得</t>
-  </si>
-  <si>
     <t>subSetRow</t>
   </si>
   <si>
-    <t>テキストボックスのカーソル制御</t>
-  </si>
-  <si>
     <t>fncMsgBox</t>
   </si>
   <si>
-    <t>メッセージボックス</t>
-  </si>
-  <si>
     <t>fncErrors</t>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
   </si>
   <si>
     <t>プロセスを終了する</t>
@@ -354,136 +278,266 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3d_pot_test_plus.exeの出力ファイルをリネームして指定フォルダにコピーする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面を起動する</t>
+    <t>'前処理</t>
+  </si>
+  <si>
+    <t>'周回処理</t>
+  </si>
+  <si>
+    <t>'後処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call subPreProc() </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call subProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Call subAfterProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text)) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタンを押下する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'Itiファイルを作成する</t>
+  </si>
+  <si>
+    <t>fncFileDelete_d()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fncItiFile(m, 0) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fncFileDelete_txrx() </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'プロジェクト名.setup 起動</t>
+  </si>
+  <si>
+    <t>System.Diagnostics.Process.Start(sSetup, pPjName &amp; ".setup 起動")</t>
+  </si>
+  <si>
+    <t>Call subiInterval(500) 'インターバル設定</t>
+  </si>
+  <si>
+    <t>If fncReadP2m(pPjPath + "\" &amp; pPjName &amp; ".p2m") Then</t>
+  </si>
+  <si>
+    <t>'3d_pot_test_plus.exe 起動</t>
+  </si>
+  <si>
+    <t>System.Diagnostics.Process.Start(s3d_pot_test_plus)</t>
+  </si>
+  <si>
+    <t>'出力ファイル リネーム</t>
+  </si>
+  <si>
+    <t>'周回の間隔</t>
+  </si>
+  <si>
+    <t>Call subiInterval(pSet_Interval) 'インターバル設定</t>
+  </si>
+  <si>
+    <t>fncExtOutRename(m, n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncMem2Power(pPjPath)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'経路計算は「fncItiFile」関数の中で行う</t>
+  </si>
+  <si>
+    <t>fncItiFile(m, n)</t>
+  </si>
+  <si>
+    <t>'プロジェクト名.txrxファイルを削除</t>
+  </si>
+  <si>
+    <t>fncFileDelete_pj_txrx()</t>
+  </si>
+  <si>
+    <t>'Itiファイルからtxrx用配列を作成</t>
+  </si>
+  <si>
+    <t>fncItiFile2Txrx(m, n)</t>
+  </si>
+  <si>
+    <t>'プロジェクト名.txrxファイルを作成</t>
+  </si>
+  <si>
+    <t>fncMem2txrx()</t>
+  </si>
+  <si>
+    <t>メイン画面起動後処理</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタン押下後処理</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2mファイルを取込みする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルをリネームして指定フォルダにコピーする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの存在をチェックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを上書きコピーする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iniファイルを読込する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iniファイルを保存する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ用定義(テンプレート)</t>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面コントロールを初期化する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージボックスを表示する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターバルを設定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ボタンを制御する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ログを出力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設定情報を取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスのカーソルを制御する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ログ「OK/NG」の表示色をを出力する（0：緑色、1：赤色、2：黄色）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ログ「OK/NG」用配列を設定する（0：緑色、1：赤色、2：黄色）</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>キドウ</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートボタンを押下する</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
+    <rPh sb="12" eb="14">
+      <t>ハイレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>'前処理</t>
-  </si>
-  <si>
-    <t>'周回処理</t>
-  </si>
-  <si>
-    <t>'後処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call subPreProc() </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call subProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text))</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Call subAfterProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text)) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートボタンを押下する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'ドローン毎の周回用ファイルを削除</t>
-  </si>
-  <si>
-    <t>'Itiファイルを作成する</t>
-  </si>
-  <si>
-    <t>'スタート前にtxrxファイルを削除</t>
-  </si>
-  <si>
-    <t>fncFileDelete_d()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fncItiFile(m, 0) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fncFileDelete_txrx() </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'プロジェクト名.setup 起動</t>
-  </si>
-  <si>
-    <t>System.Diagnostics.Process.Start(sSetup, pPjName &amp; ".setup 起動")</t>
-  </si>
-  <si>
-    <t>Call subiInterval(500) 'インターバル設定</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.p2m取込み</t>
-  </si>
-  <si>
-    <t>If fncReadP2m(pPjPath + "\" &amp; pPjName &amp; ".p2m") Then</t>
-  </si>
-  <si>
-    <t>'power.txt作成</t>
-  </si>
-  <si>
-    <t>'3d_pot_test_plus.exe 起動</t>
-  </si>
-  <si>
-    <t>System.Diagnostics.Process.Start(s3d_pot_test_plus)</t>
-  </si>
-  <si>
-    <t>'出力ファイル リネーム</t>
-  </si>
-  <si>
-    <t>'周回の間隔</t>
-  </si>
-  <si>
-    <t>Call subiInterval(pSet_Interval) 'インターバル設定</t>
-  </si>
-  <si>
-    <t>fncExtOutRename(m, n)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fncMem2Power(pPjPath)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'経路計算は「fncItiFile」関数の中で行う</t>
-  </si>
-  <si>
-    <t>fncItiFile(m, n)</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.txrxファイルを削除</t>
-  </si>
-  <si>
-    <t>fncFileDelete_pj_txrx()</t>
-  </si>
-  <si>
-    <t>'Itiファイルからtxrx用配列を作成</t>
-  </si>
-  <si>
-    <t>fncItiFile2Txrx(m, n)</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.txrxファイルを作成</t>
-  </si>
-  <si>
-    <t>fncMem2txrx()</t>
+    <t>ドローン毎の周回用ファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power.txtを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Itiファイルを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート前にtxrxファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名.txrxファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Itiファイルからtxrx用配列を作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグの項目の下にキー値を追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローン毎の周回用ファイルを削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート前にtxrxファイルを削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名.p2m取込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power.txt作成</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -728,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +880,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1204,7 @@
   </sheetPr>
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1180,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1203,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1218,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1241,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>18</v>
@@ -1256,7 +1313,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>20</v>
@@ -1271,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>22</v>
@@ -1294,10 +1351,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1306,13 +1363,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1321,13 +1378,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1336,13 +1393,13 @@
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1351,13 +1408,13 @@
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1366,13 +1423,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1381,13 +1438,13 @@
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1396,13 +1453,13 @@
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1411,13 +1468,13 @@
       <c r="D16" s="13"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1434,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1457,13 +1514,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1480,13 +1537,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1495,13 +1552,13 @@
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1510,13 +1567,13 @@
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -1525,13 +1582,13 @@
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1540,13 +1597,13 @@
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1555,13 +1612,13 @@
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1578,13 +1635,13 @@
         <v>13</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1593,13 +1650,13 @@
       <c r="D26" s="9"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -1608,13 +1665,13 @@
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1623,13 +1680,13 @@
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1638,13 +1695,13 @@
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -1653,13 +1710,13 @@
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1668,13 +1725,13 @@
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -1683,13 +1740,13 @@
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1698,13 +1755,13 @@
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1713,13 +1770,13 @@
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -1728,13 +1785,13 @@
       <c r="D35" s="13"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1751,13 +1808,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A80E43-7B1A-4A2D-B732-83CF11038AD9}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1767,177 +1826,177 @@
     </row>
     <row r="4" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="31" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="31" t="s">
-        <v>100</v>
+      <c r="C6" s="33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="31" t="s">
-        <v>101</v>
+      <c r="C8" s="33" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="31" t="s">
-        <v>102</v>
+      <c r="C10" s="33" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C15" s="32" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="32" t="s">
-        <v>109</v>
+      <c r="C18" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="32" t="s">
-        <v>111</v>
+      <c r="C20" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C22" s="32" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C25" s="32" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C27" s="32" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" s="31" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C32" s="32" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C33" s="32" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C35" s="32" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C37" s="32" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C39" s="32" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DABD21-0D05-462D-9DC9-3D31C99983CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D38D0-E17D-4D9A-A507-5CF4C6FF9D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="195" windowWidth="21750" windowHeight="15165" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="600" yWindow="2775" windowWidth="19770" windowHeight="11955" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
     <sheet name="モジュール・ツリー" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,17 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
   <si>
     <t>frmMain</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mduMain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mduProc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -134,10 +130,6 @@
     <t>後処理</t>
   </si>
   <si>
-    <t>画面表示用モジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインモジュール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,23 +138,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制御用モジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ用モジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Txrx作成用モジュール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>共通関数用モジュール</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fncReadP2m</t>
   </si>
   <si>
     <t>fncMem2Power</t>
@@ -303,9 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>'Itiファイルを作成する</t>
-  </si>
-  <si>
     <t>fncFileDelete_d()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,12 +329,6 @@
   <si>
     <t>fncMem2Power(pPjPath)</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'経路計算は「fncItiFile」関数の中で行う</t>
-  </si>
-  <si>
-    <t>fncItiFile(m, n)</t>
   </si>
   <si>
     <t>'プロジェクト名.txrxファイルを削除</t>
@@ -434,16 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグ用定義(テンプレート)</t>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面コントロールを初期化する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Itiファイルからtxrx用配列を作成する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タグの項目の下にキー値を追加する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,6 +495,112 @@
   </si>
   <si>
     <t>power.txt作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数・変数定義用モジュール</t>
+  </si>
+  <si>
+    <t>mduConst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数定義(Public Const)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数定義(Public)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>経路計算用モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mduIti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ作成用モジュール</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pointsタグテンプレート(Public Const)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>routeタグテンプレート</t>
+  </si>
+  <si>
+    <t>gridタグテンプレート</t>
+  </si>
+  <si>
+    <t>サンプルデータ(test3_wet_foli.txrx)</t>
+  </si>
+  <si>
+    <t>画面用モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iti用配列からtxrxファイルを作成する</t>
+  </si>
+  <si>
+    <t>fncFile2P2m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経路計算する</t>
+  </si>
+  <si>
+    <t>fncItiCalc</t>
+  </si>
+  <si>
+    <t>fncFile2Grid</t>
+  </si>
+  <si>
+    <t>130.CSVファイルを配列にセットする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '130.CSVファイルを配列にセット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Call subOkNg_Color(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        End If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '経路計算する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'new_itiファイルを削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Call subLogOutput("&gt; " &amp; "Txrxファイルを削除=&gt;NG")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Itiファイルを作成する</t>
+  </si>
+  <si>
+    <t>fncFile2Grid(pc130_Grid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncItiCalc()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncFileDel(pPjPath &amp; "\new_iti.csv")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fncItiFile(m, n) </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +648,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -858,21 +930,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +940,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,16 +1274,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
@@ -1222,25 +1296,25 @@
     <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1248,22 +1322,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1272,13 +1346,13 @@
       <c r="D4" s="13"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1286,22 +1360,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -1310,13 +1384,13 @@
       <c r="D6" s="9"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -1325,13 +1399,13 @@
       <c r="D7" s="9"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1339,22 +1413,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1363,13 +1437,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1378,13 +1452,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1393,13 +1467,13 @@
       <c r="D11" s="9"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1408,13 +1482,13 @@
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1423,13 +1497,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1438,13 +1512,13 @@
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1453,13 +1527,13 @@
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1468,97 +1542,89 @@
       <c r="D16" s="13"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="8">
-        <v>4</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="25">
-        <v>5</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="8">
-        <v>6</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1567,13 +1633,13 @@
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -1582,13 +1648,13 @@
       <c r="D22" s="9"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1597,13 +1663,13 @@
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1612,51 +1678,51 @@
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="5">
+      <c r="B25" s="8"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="5">
         <v>7</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="8"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>109</v>
+      <c r="C26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -1665,13 +1731,13 @@
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1680,13 +1746,13 @@
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1695,13 +1761,13 @@
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -1710,13 +1776,13 @@
       <c r="D30" s="9"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1725,13 +1791,13 @@
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -1740,13 +1806,13 @@
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1755,13 +1821,13 @@
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1770,34 +1836,155 @@
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>63</v>
+      <c r="B35" s="8"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="12"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="5">
+        <v>5</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="8"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="8"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="8"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="31">
+        <v>8</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="32"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23" right="0.27559055118110237" top="0.43307086614173229" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -1806,203 +1993,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A80E43-7B1A-4A2D-B732-83CF11038AD9}">
-  <dimension ref="A1:C40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>72</v>
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="33" t="s">
-        <v>123</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="33" t="s">
-        <v>118</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="33" t="s">
-        <v>124</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="32" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="30" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="30" t="s">
-        <v>126</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="32" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="32" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="31" t="s">
-        <v>68</v>
+      <c r="B30" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.59055118110236227" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D38D0-E17D-4D9A-A507-5CF4C6FF9D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6691C6-1B9E-4F7B-8543-EEFC979E953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2775" windowWidth="19770" windowHeight="11955" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="173">
   <si>
     <t>frmMain</t>
     <phoneticPr fontId="1"/>
@@ -149,9 +149,6 @@
     <t>fncMem2Power</t>
   </si>
   <si>
-    <t>fncFileDelete_d</t>
-  </si>
-  <si>
     <t>fncExtOutRename</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
   </si>
   <si>
     <t>タグの項目でスペース以降の値を更新する</t>
-  </si>
-  <si>
-    <t>fncItiFile2Txrx</t>
   </si>
   <si>
     <t>fncFileDelete_pj_txrx</t>
@@ -284,18 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fncFileDelete_d()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fncItiFile(m, 0) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fncFileDelete_txrx() </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>'プロジェクト名.setup 起動</t>
   </si>
   <si>
@@ -335,15 +317,6 @@
   </si>
   <si>
     <t>fncFileDelete_pj_txrx()</t>
-  </si>
-  <si>
-    <t>'Itiファイルからtxrx用配列を作成</t>
-  </si>
-  <si>
-    <t>fncItiFile2Txrx(m, n)</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.txrxファイルを作成</t>
   </si>
   <si>
     <t>fncMem2txrx()</t>
@@ -441,27 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面ログ「OK/NG」の表示色をを出力する（0：緑色、1：赤色、2：黄色）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面ログ「OK/NG」用配列を設定する（0：緑色、1：赤色、2：黄色）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドローン毎の周回用ファイルを削除する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Power.txtを作成する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,23 +422,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタート前にtxrxファイルを削除する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト名.txrxファイルを削除する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タグの項目の下にキー値を追加する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドローン毎の周回用ファイルを削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタート前にtxrxファイルを削除</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -548,9 +488,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Iti用配列からtxrxファイルを作成する</t>
-  </si>
-  <si>
     <t>fncFile2P2m</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,21 +507,12 @@
     <t xml:space="preserve">        '130.CSVファイルを配列にセット</t>
   </si>
   <si>
-    <t xml:space="preserve">            Call subOkNg_Color(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        End If</t>
-  </si>
-  <si>
     <t xml:space="preserve">        '経路計算する</t>
   </si>
   <si>
     <t xml:space="preserve">        'new_itiファイルを削除</t>
   </si>
   <si>
-    <t xml:space="preserve">            Call subLogOutput("&gt; " &amp; "Txrxファイルを削除=&gt;NG")</t>
-  </si>
-  <si>
     <t xml:space="preserve">        'Itiファイルを作成する</t>
   </si>
   <si>
@@ -592,15 +520,151 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fncItiCalc()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fncFileDel(pPjPath &amp; "\new_iti.csv")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">fncItiFile(m, n) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Call subFileDel_w(pPjPath &amp; "\*.log")</t>
+  </si>
+  <si>
+    <t>Logファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周回用ファイルを削除する</t>
+  </si>
+  <si>
+    <t>Call subFileDel_w(pPjPath &amp; "\d*.*")</t>
+  </si>
+  <si>
+    <t>New_Itiファイルを削除</t>
+  </si>
+  <si>
+    <t>fncFileDel(pPjPath &amp; "\New_Iti.csv")</t>
+  </si>
+  <si>
+    <t>For m = 1 To pSet_d</t>
+  </si>
+  <si>
+    <t>130.CSVファイルから130配列にセット</t>
+  </si>
+  <si>
+    <t>fncFile2Grid(pc130_Grid)</t>
+  </si>
+  <si>
+    <t>130配列から飛距離計算</t>
+  </si>
+  <si>
+    <t>fnc130Calc()</t>
+  </si>
+  <si>
+    <t>経路計算(n=0)</t>
+  </si>
+  <si>
+    <t>fncItiCalc(m, 0)</t>
+  </si>
+  <si>
+    <t>Itiファイル(n=0)を作成</t>
+  </si>
+  <si>
+    <t>fncItiFile(m, 0)</t>
+  </si>
+  <si>
+    <t>'New_Itiファイルを削除</t>
+  </si>
+  <si>
+    <t>'130配列から飛距離計算する</t>
+  </si>
+  <si>
+    <t>fncItiCalc(m, n)</t>
+  </si>
+  <si>
+    <t>'New_Itiファイルを作成する</t>
+  </si>
+  <si>
+    <t>fncNewItiFile(m, n)</t>
+  </si>
+  <si>
+    <t>'Iti用配列からtxrx用配列を作成する</t>
+  </si>
+  <si>
+    <t>fncIti2Txrx(m, n)</t>
+  </si>
+  <si>
+    <t>'タグデータを(仮)作成する</t>
+  </si>
+  <si>
+    <t>fncTagCreate()</t>
+  </si>
+  <si>
+    <t>'プロジェクト名.txrxファイルを作成する</t>
+  </si>
+  <si>
+    <t>'プロジェクト名.Txrxファイルを周回用.Txrxファイルにコピーする</t>
+  </si>
+  <si>
+    <t>fncCopyTxrx(m, n)</t>
+  </si>
+  <si>
+    <t>'***************************************************</t>
+  </si>
+  <si>
+    <t>ワイルドカードでファイルを削除する</t>
+  </si>
+  <si>
+    <t>subFileDel_w</t>
+  </si>
+  <si>
+    <t>130配列から飛距離計算する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fnc130Calc</t>
+  </si>
+  <si>
+    <t>New_Itiファイルを作成する</t>
+  </si>
+  <si>
+    <t>fncNewItiFile</t>
+  </si>
+  <si>
+    <t>タグデータを(仮)作成する</t>
+  </si>
+  <si>
+    <t>fncTagCreate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名.Txrxファイルを周回用dv.Txrxファイルにコピーする</t>
+  </si>
+  <si>
+    <t>fncCopyTxrx</t>
+  </si>
+  <si>
+    <t>Iti用配列からtxrx用配列を作成する</t>
+  </si>
+  <si>
+    <t>fncIti2Txrx</t>
+  </si>
+  <si>
+    <t>txrxファイルを削除する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ログ「OK/NG」用配列を設定する</t>
+  </si>
+  <si>
+    <t>画面ログ「OK/NG」の表示色をを出力する</t>
+  </si>
+  <si>
+    <t>subLogOutput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルの読込処理</t>
+  </si>
+  <si>
+    <t>ReadCsv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -854,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +1020,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,10 +1341,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1311,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1325,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>0</v>
@@ -1334,10 +1401,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1349,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1372,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -1387,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>19</v>
@@ -1402,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>21</v>
@@ -1422,13 +1489,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1440,10 +1507,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1455,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>107</v>
+        <v>35</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1470,10 +1537,10 @@
         <v>28</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>91</v>
+        <v>35</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1485,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1497,13 +1564,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1512,13 +1579,13 @@
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1527,13 +1594,13 @@
       <c r="D15" s="9"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1542,13 +1609,13 @@
       <c r="D16" s="13"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1559,102 +1626,102 @@
         <v>7</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="F17" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="34"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>135</v>
+      <c r="G19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="8">
-        <v>6</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1663,13 +1730,13 @@
       <c r="D23" s="9"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1678,13 +1745,13 @@
       <c r="D24" s="9"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1693,36 +1760,28 @@
       <c r="D25" s="9"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="5">
-        <v>7</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>97</v>
+      <c r="B26" s="8"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -1731,13 +1790,13 @@
       <c r="D27" s="9"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1746,13 +1805,13 @@
       <c r="D28" s="9"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1761,28 +1820,36 @@
       <c r="D29" s="9"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>105</v>
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1791,13 +1858,13 @@
       <c r="D31" s="9"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -1806,13 +1873,13 @@
       <c r="D32" s="9"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1821,13 +1888,13 @@
       <c r="D33" s="9"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1836,13 +1903,13 @@
       <c r="D34" s="9"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -1851,51 +1918,43 @@
       <c r="D35" s="9"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>58</v>
+      <c r="B36" s="8"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="5">
-        <v>5</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>125</v>
+      <c r="B37" s="8"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -1904,13 +1963,13 @@
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -1919,72 +1978,170 @@
       <c r="D39" s="9"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
-      <c r="C40" s="20"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="9"/>
       <c r="E40" s="24"/>
-      <c r="F40" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>39</v>
+      <c r="F40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="31">
+      <c r="B41" s="8"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="8"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="5">
+        <v>7</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="8"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="8"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46" s="8"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="31">
         <v>8</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C47" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="32"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>120</v>
+      <c r="D47" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="32"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23" right="0.27559055118110237" top="0.43307086614173229" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -1996,235 +2153,348 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C6" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="28" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+    <row r="30" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="27" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="27" t="s">
-        <v>138</v>
-      </c>
       <c r="C42" s="27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C46" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="27"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C57" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.59055118110236227" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6691C6-1B9E-4F7B-8543-EEFC979E953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8AFD3-3646-4398-9E37-C20ADB584C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -147,9 +145,6 @@
   </si>
   <si>
     <t>fncMem2Power</t>
-  </si>
-  <si>
-    <t>fncExtOutRename</t>
   </si>
   <si>
     <t>fncFileCheck</t>
@@ -351,14 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P2mファイルを取込みする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力ファイルをリネームして指定フォルダにコピーする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルの存在をチェックする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,9 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクト名.Txrxファイルを周回用dv.Txrxファイルにコピーする</t>
-  </si>
-  <si>
     <t>fncCopyTxrx</t>
   </si>
   <si>
@@ -665,6 +649,28 @@
   </si>
   <si>
     <t>ReadCsv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2mファイルを配列にセットする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴用txrxファイルにコピーする</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴用130ファイルにコピーする</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncCopy130</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -918,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,9 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,7 +1347,7 @@
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1362,84 +1365,84 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>58</v>
+      <c r="G2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>34</v>
+      <c r="G3" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="11"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>34</v>
+      <c r="G5" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -1447,14 +1450,14 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>34</v>
+      <c r="G6" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>19</v>
@@ -1462,14 +1465,14 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>34</v>
+      <c r="G7" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>21</v>
@@ -1479,669 +1482,669 @@
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>35</v>
+      <c r="F8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>35</v>
+      <c r="G9" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>83</v>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>35</v>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>35</v>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>34</v>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>35</v>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>88</v>
+      <c r="G16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="D17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="33"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="33"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="G19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="33"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="34"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="G20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="11"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="34"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="8">
         <v>5</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>37</v>
+      <c r="F22" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>37</v>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>37</v>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>37</v>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
-      <c r="C28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>37</v>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>37</v>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="5">
         <v>6</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>34</v>
+      <c r="F30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>34</v>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
-      <c r="C32" s="21"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>34</v>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>34</v>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>34</v>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>34</v>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>34</v>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
-      <c r="C37" s="21"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>34</v>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>34</v>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
-      <c r="C39" s="21"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>37</v>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
-      <c r="C40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>37</v>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
-      <c r="C41" s="21"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>34</v>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
-      <c r="C42" s="21"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>37</v>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="5">
         <v>7</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>111</v>
+      <c r="F43" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>38</v>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>38</v>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
-      <c r="C46" s="20"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>38</v>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <v>8</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="31"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="32"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23" right="0.27559055118110237" top="0.43307086614173229" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -2161,9 +2164,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>65</v>
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -2171,324 +2174,324 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
-        <v>59</v>
+    <row r="4" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="25" t="s">
-        <v>128</v>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="28" t="s">
-        <v>98</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="28" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="28" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="27" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="26" t="s">
-        <v>60</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="25" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="25" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="27" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="26" t="s">
-        <v>61</v>
+      <c r="B40" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="27" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="27" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="27"/>
+      <c r="C46" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>143</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="27"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="27" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>145</v>
+    </row>
+    <row r="55" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>147</v>
+      <c r="C57" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>152</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8AFD3-3646-4398-9E37-C20ADB584C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2517F-0982-4A7C-A5C9-0AD1862FF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="10335" yWindow="345" windowWidth="9990" windowHeight="10335" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="173">
   <si>
     <t>frmMain</t>
     <phoneticPr fontId="1"/>
@@ -273,9 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>'プロジェクト名.setup 起動</t>
-  </si>
-  <si>
     <t>System.Diagnostics.Process.Start(sSetup, pPjName &amp; ".setup 起動")</t>
   </si>
   <si>
@@ -291,24 +288,14 @@
     <t>System.Diagnostics.Process.Start(s3d_pot_test_plus)</t>
   </si>
   <si>
-    <t>'出力ファイル リネーム</t>
-  </si>
-  <si>
     <t>'周回の間隔</t>
   </si>
   <si>
     <t>Call subiInterval(pSet_Interval) 'インターバル設定</t>
   </si>
   <si>
-    <t>fncExtOutRename(m, n)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fncMem2Power(pPjPath)</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'プロジェクト名.txrxファイルを削除</t>
   </si>
   <si>
     <t>fncFileDelete_pj_txrx()</t>
@@ -417,10 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクト名.p2m取込み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>power.txt作成</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,16 +561,7 @@
     <t>fncIti2Txrx(m, n)</t>
   </si>
   <si>
-    <t>'タグデータを(仮)作成する</t>
-  </si>
-  <si>
     <t>fncTagCreate()</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.txrxファイルを作成する</t>
-  </si>
-  <si>
-    <t>'プロジェクト名.Txrxファイルを周回用.Txrxファイルにコピーする</t>
   </si>
   <si>
     <t>fncCopyTxrx(m, n)</t>
@@ -671,6 +645,36 @@
   </si>
   <si>
     <t>fncCopy130</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setup 起動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2mファイルを配列にセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'履歴用130ファイルにコピー</t>
+  </si>
+  <si>
+    <t>txrxファイルを削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグデータを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴用Txrxファイルにコピーする</t>
+  </si>
+  <si>
+    <t>txrxファイルを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncCopy130(m, n)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,9 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1026,6 +1027,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,7 +1365,7 @@
   </sheetPr>
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1395,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1407,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1422,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1492,13 +1511,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1513,7 +1532,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1522,13 +1541,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1543,7 +1562,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1558,7 +1577,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1567,13 +1586,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1588,7 +1607,7 @@
         <v>34</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1603,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1618,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1629,38 +1648,38 @@
         <v>7</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="33"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="20"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="33"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="20"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1671,22 +1690,22 @@
         <v>34</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="33"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="20"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1695,13 +1714,13 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -1718,13 +1737,13 @@
         <v>15</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1748,13 +1767,13 @@
       <c r="D24" s="9"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1769,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1793,13 +1812,13 @@
       <c r="D27" s="9"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1814,7 +1833,7 @@
         <v>36</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1829,7 +1848,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -1852,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1867,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -1882,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1897,7 +1916,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1912,7 +1931,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -1927,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -1936,13 +1955,13 @@
       <c r="D36" s="9"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -1957,7 +1976,7 @@
         <v>33</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -1972,7 +1991,7 @@
         <v>33</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -1987,7 +2006,7 @@
         <v>36</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -2002,7 +2021,7 @@
         <v>36</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -2026,13 +2045,13 @@
       <c r="D42" s="9"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -2043,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>14</v>
@@ -2055,7 +2074,7 @@
         <v>37</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
@@ -2070,7 +2089,7 @@
         <v>37</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
@@ -2085,7 +2104,7 @@
         <v>37</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
@@ -2100,45 +2119,45 @@
         <v>37</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>8</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="31"/>
-      <c r="C48" s="28"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2156,18 +2175,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="4" width="3.5" style="34"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>64</v>
       </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -2178,6 +2200,8 @@
       <c r="B4" s="25" t="s">
         <v>58</v>
       </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
@@ -2185,319 +2209,361 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="27" t="s">
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="33"/>
+      <c r="D14" s="36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="27" t="s">
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="33"/>
+      <c r="D16" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+    <row r="18" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="33"/>
+      <c r="D18" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="27" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
+    <row r="20" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="33"/>
+      <c r="D20" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="27" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="34" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="26" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
+    <row r="29" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
+    <row r="31" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="26" t="s">
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="26" t="s">
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C41" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C46" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C48" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C49" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C51" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C53" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C55" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C57" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C59" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C62" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C64" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="38"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C66" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="26"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="26"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="26" t="s">
+    <row r="67" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C68" s="34" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="32" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.59055118110236227" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2517F-0982-4A7C-A5C9-0AD1862FF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D58666-3558-4DF8-B0E0-8244017BD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="345" windowWidth="9990" windowHeight="10335" activeTab="1" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
+    <workbookView xWindow="2730" yWindow="120" windowWidth="20340" windowHeight="14970" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
   <sheets>
     <sheet name="モジュール一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="モジュール・ツリー" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>frmMain</t>
     <phoneticPr fontId="1"/>
@@ -81,9 +80,6 @@
   </si>
   <si>
     <t>btnStart_Click</t>
-  </si>
-  <si>
-    <t>btnStart_Click</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル用モジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Txrx作成用モジュール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,9 +210,6 @@
   </si>
   <si>
     <t>subLogOutput_Color</t>
-  </si>
-  <si>
-    <t>subLogOutput</t>
   </si>
   <si>
     <t>subSetGamen</t>
@@ -246,62 +235,6 @@
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'前処理</t>
-  </si>
-  <si>
-    <t>'周回処理</t>
-  </si>
-  <si>
-    <t>'後処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call subPreProc() </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call subProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text))</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Call subAfterProc(CInt(txtNow_m.Text), CInt(txtNow_n.Text)) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートボタンを押下する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>System.Diagnostics.Process.Start(sSetup, pPjName &amp; ".setup 起動")</t>
-  </si>
-  <si>
-    <t>Call subiInterval(500) 'インターバル設定</t>
-  </si>
-  <si>
-    <t>If fncReadP2m(pPjPath + "\" &amp; pPjName &amp; ".p2m") Then</t>
-  </si>
-  <si>
-    <t>'3d_pot_test_plus.exe 起動</t>
-  </si>
-  <si>
-    <t>System.Diagnostics.Process.Start(s3d_pot_test_plus)</t>
-  </si>
-  <si>
-    <t>'周回の間隔</t>
-  </si>
-  <si>
-    <t>Call subiInterval(pSet_Interval) 'インターバル設定</t>
-  </si>
-  <si>
-    <t>fncMem2Power(pPjPath)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fncFileDelete_pj_txrx()</t>
-  </si>
-  <si>
-    <t>fncMem2txrx()</t>
   </si>
   <si>
     <t>メイン画面起動後処理</t>
@@ -404,10 +337,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>power.txt作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定数・変数定義用モジュール</t>
   </si>
   <si>
@@ -441,19 +370,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pointsタグテンプレート(Public Const)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>routeタグテンプレート</t>
-  </si>
-  <si>
     <t>gridタグテンプレート</t>
   </si>
   <si>
-    <t>サンプルデータ(test3_wet_foli.txrx)</t>
-  </si>
-  <si>
     <t>画面用モジュール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,102 +391,6 @@
   </si>
   <si>
     <t>130.CSVファイルを配列にセットする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        '130.CSVファイルを配列にセット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        '経路計算する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        'new_itiファイルを削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        'Itiファイルを作成する</t>
-  </si>
-  <si>
-    <t>fncFile2Grid(pc130_Grid)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fncItiFile(m, n) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Call subFileDel_w(pPjPath &amp; "\*.log")</t>
-  </si>
-  <si>
-    <t>Logファイルを削除する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>周回用ファイルを削除する</t>
-  </si>
-  <si>
-    <t>Call subFileDel_w(pPjPath &amp; "\d*.*")</t>
-  </si>
-  <si>
-    <t>New_Itiファイルを削除</t>
-  </si>
-  <si>
-    <t>fncFileDel(pPjPath &amp; "\New_Iti.csv")</t>
-  </si>
-  <si>
-    <t>For m = 1 To pSet_d</t>
-  </si>
-  <si>
-    <t>130.CSVファイルから130配列にセット</t>
-  </si>
-  <si>
-    <t>fncFile2Grid(pc130_Grid)</t>
-  </si>
-  <si>
-    <t>130配列から飛距離計算</t>
-  </si>
-  <si>
-    <t>fnc130Calc()</t>
-  </si>
-  <si>
-    <t>経路計算(n=0)</t>
-  </si>
-  <si>
-    <t>fncItiCalc(m, 0)</t>
-  </si>
-  <si>
-    <t>Itiファイル(n=0)を作成</t>
-  </si>
-  <si>
-    <t>fncItiFile(m, 0)</t>
-  </si>
-  <si>
-    <t>'New_Itiファイルを削除</t>
-  </si>
-  <si>
-    <t>'130配列から飛距離計算する</t>
-  </si>
-  <si>
-    <t>fncItiCalc(m, n)</t>
-  </si>
-  <si>
-    <t>'New_Itiファイルを作成する</t>
-  </si>
-  <si>
-    <t>fncNewItiFile(m, n)</t>
-  </si>
-  <si>
-    <t>'Iti用配列からtxrx用配列を作成する</t>
-  </si>
-  <si>
-    <t>fncIti2Txrx(m, n)</t>
-  </si>
-  <si>
-    <t>fncTagCreate()</t>
-  </si>
-  <si>
-    <t>fncCopyTxrx(m, n)</t>
-  </si>
-  <si>
-    <t>'***************************************************</t>
   </si>
   <si>
     <t>ワイルドカードでファイルを削除する</t>
@@ -648,33 +471,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>setup 起動</t>
-    <phoneticPr fontId="1"/>
+    <t>fncFileSort</t>
   </si>
   <si>
     <t>P2mファイルを配列にセット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'履歴用130ファイルにコピー</t>
-  </si>
-  <si>
-    <t>txrxファイルを削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグデータを作成する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴用Txrxファイルにコピーする</t>
-  </si>
-  <si>
-    <t>txrxファイルを作成する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fncCopy130(m, n)</t>
+  </si>
+  <si>
+    <t>fncGetDirName_P2m</t>
+  </si>
+  <si>
+    <t>フォルダ内P2mファイル名を取得する</t>
+  </si>
+  <si>
+    <t>fncGetDir_P2m</t>
+  </si>
+  <si>
+    <t>フォルダ内P2mファイル数を取得する</t>
+  </si>
+  <si>
+    <t>fncDirCopy</t>
+  </si>
+  <si>
+    <t>フォルダをコピーする</t>
+  </si>
+  <si>
+    <t>fncDirDel</t>
+  </si>
+  <si>
+    <t>フォルダを削除する</t>
+  </si>
+  <si>
+    <t>fncTagCrLf</t>
+  </si>
+  <si>
+    <t>行末をCrLfに更新する</t>
+  </si>
+  <si>
+    <t>routeタグテンプレート(Public Const)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -682,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,30 +536,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -928,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,15 +810,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,29 +822,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,161 +1142,169 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="102.875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>57</v>
+      <c r="G1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="5">
+      <c r="B3" s="11"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="11"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
+      <c r="F4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="20"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>19</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
       <c r="C7" s="20"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="23" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>161</v>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1526,13 +1313,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1541,13 +1328,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1556,13 +1343,13 @@
       <c r="D11" s="9"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1571,13 +1358,13 @@
       <c r="D12" s="9"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1586,13 +1373,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1601,13 +1388,13 @@
       <c r="D14" s="9"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1616,194 +1403,194 @@
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>34</v>
-      </c>
       <c r="H17" s="10" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="32"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="32"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="11"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="32"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="8">
-        <v>5</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="8"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>162</v>
+        <v>32</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="8"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>93</v>
+      <c r="B25" s="11"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="8"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F26" s="23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -1812,13 +1599,13 @@
       <c r="D27" s="9"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1827,13 +1614,13 @@
       <c r="D28" s="9"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1842,36 +1629,28 @@
       <c r="D29" s="9"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="5">
-        <v>6</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>82</v>
+      <c r="B30" s="8"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1880,13 +1659,13 @@
       <c r="D31" s="9"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -1895,13 +1674,13 @@
       <c r="D32" s="9"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1910,13 +1689,13 @@
       <c r="D33" s="9"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1925,28 +1704,36 @@
       <c r="D34" s="9"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>157</v>
+      <c r="B35" s="5">
+        <v>6</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -1955,13 +1742,13 @@
       <c r="D36" s="9"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -1970,13 +1757,13 @@
       <c r="D37" s="9"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -1985,13 +1772,13 @@
       <c r="D38" s="9"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -2000,13 +1787,13 @@
       <c r="D39" s="9"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -2015,13 +1802,13 @@
       <c r="D40" s="9"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -2030,13 +1817,13 @@
       <c r="D41" s="9"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -2045,36 +1832,28 @@
       <c r="D42" s="9"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="5">
-        <v>7</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>103</v>
+      <c r="B43" s="8"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
@@ -2083,13 +1862,13 @@
       <c r="D44" s="9"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
@@ -2098,472 +1877,110 @@
       <c r="D45" s="9"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="9"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>37</v>
+      <c r="F46" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="29">
+      <c r="B47" s="5">
+        <v>7</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="8"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="26">
         <v>8</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C49" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="30"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>98</v>
+      <c r="D49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="27"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23" right="0.27559055118110237" top="0.43307086614173229" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;A</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A80E43-7B1A-4A2D-B732-83CF11038AD9}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D68"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="4" width="3.5" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="33"/>
-      <c r="D14" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D15" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="33"/>
-      <c r="D16" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D17" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="33"/>
-      <c r="D18" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D19" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="33"/>
-      <c r="D20" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D21" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C25" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="37"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C27" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C28" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C30" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C32" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C33" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C35" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C36" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="37"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C38" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C39" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C41" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="37"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C46" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="37"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C48" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C49" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C51" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="38"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C53" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C55" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C57" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="38"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C59" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C60" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C62" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="38"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C64" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="38"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C66" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="38"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C68" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.59055118110236227" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/モジュール説明.xlsx
+++ b/Doc/モジュール説明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D58666-3558-4DF8-B0E0-8244017BD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3CA0-2933-41C0-8E38-5095225F3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="120" windowWidth="20340" windowHeight="14970" xr2:uid="{4BD1029F-6FA0-4275-A4C4-2A20531205D7}"/>
   </bookViews>
@@ -501,13 +501,15 @@
     <t>フォルダを削除する</t>
   </si>
   <si>
-    <t>fncTagCrLf</t>
-  </si>
-  <si>
-    <t>行末をCrLfに更新する</t>
-  </si>
-  <si>
     <t>routeタグテンプレート(Public Const)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fncTagLf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行末をLfに更新する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1142,838 +1144,835 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="102.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="102.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" s="17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="5">
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="28"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="28"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="B35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="G35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="G36" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="28"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="28"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="28"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="11"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="8">
-        <v>5</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="8"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="8"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="8"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="8"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="8"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="8"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="8"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="5">
-        <v>6</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="8"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="8"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="8"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="8"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="8"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="8"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="8"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="8"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="8"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="8"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="8"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="5">
-        <v>7</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="D47" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E47" s="21" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="8"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="23"/>
       <c r="F48" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="26">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="26">
         <v>8</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="25" t="s">
         <v>7</v>
       </c>
+      <c r="C49" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="D49" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="27"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="27"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
       <c r="F50" s="22" t="s">
         <v>78</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="22" t="s">
         <v>77</v>
       </c>
     </row>
